--- a/count-of-rating/countreducerchart.xlsx
+++ b/count-of-rating/countreducerchart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sem 4\BigData\repo\bigdata-imdb-analysis\count-of-rating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s534572\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{760AECA9-77A7-4EE7-8656-E51F853CB638}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A13BFF1-8F32-43A0-AA8B-919620CD9A30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5168" uniqueCount="5125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5135" uniqueCount="5125">
   <si>
     <t>Production_company</t>
   </si>
@@ -15404,7 +15404,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -15972,7 +15972,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -15986,11 +15986,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Count of No.</a:t>
+              <a:t>Production company with most number of</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of movies done by each production</a:t>
+              <a:t> movies</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -16009,7 +16009,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -16037,9 +16037,20 @@
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -16057,12 +16068,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="lt1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -16072,16 +16080,344 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="brightRoom" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="50800" h="101600" prst="angle"/>
+            <a:contourClr>
+              <a:srgbClr val="000000"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -16113,7 +16449,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -16126,7 +16477,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -16139,7 +16505,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -16152,7 +16533,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -16165,7 +16561,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -16178,7 +16589,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -16193,7 +16619,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -16208,7 +16649,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -16223,7 +16679,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -16238,7 +16709,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -16253,7 +16739,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -16268,7 +16769,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -16284,7 +16800,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -16300,7 +16831,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -16316,7 +16862,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -16332,7 +16893,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -16348,7 +16924,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -16364,7 +16955,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -16379,7 +16985,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -16394,7 +17015,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -16409,7 +17045,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -16424,7 +17075,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -16439,7 +17105,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
@@ -16454,7 +17135,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -16470,7 +17166,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -16486,7 +17197,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
@@ -16502,7 +17228,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
@@ -16518,7 +17259,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
@@ -16534,7 +17290,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="29"/>
@@ -16550,7 +17321,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="30"/>
@@ -16565,7 +17351,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="31"/>
@@ -16580,7 +17381,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="32"/>
@@ -16595,7 +17411,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="33"/>
@@ -16610,7 +17441,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="34"/>
@@ -16625,7 +17471,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="35"/>
@@ -16640,7 +17501,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="36"/>
@@ -16656,7 +17532,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="37"/>
@@ -16672,7 +17563,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="38"/>
@@ -16688,7 +17594,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="39"/>
@@ -16704,7 +17625,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="40"/>
@@ -16720,7 +17656,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="41"/>
@@ -16736,7 +17687,22 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="42"/>
@@ -16751,279 +17717,149 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-61A2-445B-BE4A-5502BE492F27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Agat Films &amp; Cie</c:v>
+                  <c:v>Allied Artists Pictures</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Alliance Atlantis Communications</c:v>
+                  <c:v>American International Pictures (AIP)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Allied Artists Pictures</c:v>
+                  <c:v>Arte France CinÃƒÂ©ma</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>American International Pictures (AIP)</c:v>
+                  <c:v>Canal+</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Art Theatre Guild (ATG)</c:v>
+                  <c:v>Castle Rock Entertainment</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Arte France</c:v>
+                  <c:v>Channel Four Films</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Arte France CinÃƒÂ©ma</c:v>
+                  <c:v>CJ Entertainment</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Arts Council of England</c:v>
+                  <c:v>Columbia Pictures</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Asmik Ace Entertainment</c:v>
+                  <c:v>Daiei Studios</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Associated British Picture Corporation (ABPC)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Australian Film Finance Corporation (AFFC)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Bandai Visual Company</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Bavaria Film</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Bayerischer Rundfunk (BR)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>BBC Films</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>British Broadcasting Corporation (BBC)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>British Screen Productions</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Canal+</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Canal+ EspaÃƒÂ±a</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Cannon Group</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Carolco Pictures</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Castle Rock Entertainment</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Cattleya</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Cecchi Gori Group Tiger Cinematografica</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Central Cinema Company Film (CCC)</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Centre National de la CinÃƒÂ©matographie (CNC)</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Channel Four Films</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>China Star Entertainment</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Cinetel Films</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>CJ Entertainment</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Columbia Pictures</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Columbia Pictures Corporation</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Concorde Pictures</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Concorde-New Horizons</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Constantin Film</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Cosmopolitan Productions</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Daiei Motion Picture Company</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Daiei Studios</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Dania Film</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>De Laurentiis Entertainment Group (DEG)</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Deutsche Film (DEFA)</c:v>
-                </c:pt>
-                <c:pt idx="41">
                   <c:v>Dimension Films</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Dino De Laurentiis Company</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$45</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>53</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="41">
                   <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17035,11 +17871,12 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -17195,7 +18032,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17206,7 +18043,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -17218,17 +18055,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -17252,19 +18078,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -17296,29 +18119,54 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -17333,10 +18181,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -17344,19 +18190,22 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -17399,22 +18248,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -17519,8 +18369,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -17615,7 +18465,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -17631,7 +18481,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -17652,19 +18502,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -17701,16 +18552,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17739,7 +18590,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Devulapally,Rajender Ravi Varma" refreshedDate="43884.664404745374" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5120">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Devulapally,Rajender Ravi Varma" refreshedDate="43884.664404745374" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5120" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B5121" sheet="countreducer"/>
   </cacheSource>
@@ -43363,8 +44214,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
       <items count="5118">
@@ -48493,13 +49344,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="44">
-    <i>
-      <x v="503"/>
-    </i>
-    <i>
-      <x v="735"/>
-    </i>
+  <rowItems count="11">
     <i>
       <x v="753"/>
     </i>
@@ -48507,79 +49352,16 @@
       <x v="923"/>
     </i>
     <i>
-      <x v="1417"/>
-    </i>
-    <i>
-      <x v="1431"/>
-    </i>
-    <i>
       <x v="1432"/>
-    </i>
-    <i>
-      <x v="1486"/>
-    </i>
-    <i>
-      <x v="1553"/>
-    </i>
-    <i>
-      <x v="1565"/>
-    </i>
-    <i>
-      <x v="1713"/>
-    </i>
-    <i>
-      <x v="1953"/>
-    </i>
-    <i>
-      <x v="2040"/>
-    </i>
-    <i>
-      <x v="2050"/>
-    </i>
-    <i>
-      <x v="2058"/>
-    </i>
-    <i>
-      <x v="2788"/>
-    </i>
-    <i>
-      <x v="2805"/>
     </i>
     <i>
       <x v="3090"/>
     </i>
     <i>
-      <x v="3092"/>
-    </i>
-    <i>
-      <x v="3113"/>
-    </i>
-    <i>
-      <x v="3215"/>
-    </i>
-    <i>
       <x v="3282"/>
     </i>
     <i>
-      <x v="3304"/>
-    </i>
-    <i>
-      <x v="3337"/>
-    </i>
-    <i>
-      <x v="3367"/>
-    </i>
-    <i>
-      <x v="3375"/>
-    </i>
-    <i>
       <x v="3457"/>
-    </i>
-    <i>
-      <x v="3572"/>
-    </i>
-    <i>
-      <x v="3937"/>
     </i>
     <i>
       <x v="4017"/>
@@ -48588,40 +49370,10 @@
       <x v="4181"/>
     </i>
     <i>
-      <x v="4182"/>
-    </i>
-    <i>
-      <x v="4277"/>
-    </i>
-    <i>
-      <x v="4278"/>
-    </i>
-    <i>
-      <x v="4317"/>
-    </i>
-    <i>
-      <x v="4424"/>
-    </i>
-    <i>
-      <x v="4662"/>
-    </i>
-    <i>
       <x v="4663"/>
     </i>
     <i>
-      <x v="4696"/>
-    </i>
-    <i>
-      <x v="4814"/>
-    </i>
-    <i>
-      <x v="4953"/>
-    </i>
-    <i>
       <x v="5027"/>
-    </i>
-    <i>
-      <x v="5039"/>
     </i>
     <i t="grand">
       <x/>
@@ -48633,7 +49385,7 @@
   <dataFields count="1">
     <dataField name="Sum of No. of movies" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="44">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -48643,13 +49395,529 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="503"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="735"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="753"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="923"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1417"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1431"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1432"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1486"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1553"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1565"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1713"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1953"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2040"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2050"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2058"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2788"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2805"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3090"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3092"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3113"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3215"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3282"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3304"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3337"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3367"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3375"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3457"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3572"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3937"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="30">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4017"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="31">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4181"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="32">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4182"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="33">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4277"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="34">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4278"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="35">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4317"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="36">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4424"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="37">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4662"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="38">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4663"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="39">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4696"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="40">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4814"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="41">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4953"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="42">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5027"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="43">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5039"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="0" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+    <filter fld="0" type="count" evalOrder="-1" id="2" iMeasureFld="0">
       <autoFilter ref="A1">
         <filterColumn colId="0">
-          <top10 val="41" filterVal="41"/>
+          <top10 val="10" filterVal="10"/>
         </filterColumn>
       </autoFilter>
     </filter>
@@ -48961,16 +50229,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -48984,354 +50252,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>604</v>
+        <v>846</v>
       </c>
       <c r="B2" s="3">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>827</v>
+        <v>1006</v>
       </c>
       <c r="B3" s="3">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>846</v>
+        <v>1484</v>
       </c>
       <c r="B4" s="3">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1006</v>
+        <v>3200</v>
       </c>
       <c r="B5" s="3">
-        <v>83</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1468</v>
+        <v>3386</v>
       </c>
       <c r="B6" s="3">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1485</v>
+        <v>3529</v>
       </c>
       <c r="B7" s="3">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1484</v>
+        <v>3064</v>
       </c>
       <c r="B8" s="3">
-        <v>53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1536</v>
+        <v>4228</v>
       </c>
       <c r="B9" s="3">
-        <v>32</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1592</v>
+        <v>4731</v>
       </c>
       <c r="B10" s="3">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1603</v>
+        <v>5075</v>
       </c>
       <c r="B11" s="3">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1741</v>
+        <v>5123</v>
       </c>
       <c r="B12" s="3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>2042</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B14" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>2137</v>
-      </c>
-      <c r="B15" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B16" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>2820</v>
-      </c>
-      <c r="B17" s="3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>2836</v>
-      </c>
-      <c r="B18" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>3200</v>
-      </c>
-      <c r="B19" s="3">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>3197</v>
-      </c>
-      <c r="B20" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>3218</v>
-      </c>
-      <c r="B21" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>3320</v>
-      </c>
-      <c r="B22" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>3386</v>
-      </c>
-      <c r="B23" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>3408</v>
-      </c>
-      <c r="B24" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>3422</v>
-      </c>
-      <c r="B25" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>3448</v>
-      </c>
-      <c r="B26" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>3455</v>
-      </c>
-      <c r="B27" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>3529</v>
-      </c>
-      <c r="B28" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>3644</v>
-      </c>
-      <c r="B29" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>3978</v>
-      </c>
-      <c r="B30" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>3064</v>
-      </c>
-      <c r="B31" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>4228</v>
-      </c>
-      <c r="B32" s="3">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>4222</v>
-      </c>
-      <c r="B33" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>4318</v>
-      </c>
-      <c r="B34" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>4319</v>
-      </c>
-      <c r="B35" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>4357</v>
-      </c>
-      <c r="B36" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>4464</v>
-      </c>
-      <c r="B37" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>4730</v>
-      </c>
-      <c r="B38" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>4731</v>
-      </c>
-      <c r="B39" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>4762</v>
-      </c>
-      <c r="B40" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>4869</v>
-      </c>
-      <c r="B41" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>5003</v>
-      </c>
-      <c r="B42" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>5075</v>
-      </c>
-      <c r="B43" s="3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>5085</v>
-      </c>
-      <c r="B44" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>5123</v>
-      </c>
-      <c r="B45" s="3">
-        <v>2657</v>
+        <v>1497</v>
       </c>
     </row>
   </sheetData>
@@ -49341,7 +50345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
